--- a/bảng kế  hoạch sau khi chỉnh sửa.xlsx
+++ b/bảng kế  hoạch sau khi chỉnh sửa.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Chrome Download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanta\OneDrive\Documents\GitHub\CODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D87C1EB-5496-422C-8B72-BFD4DCD90D58}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24990" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24990" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>STT</t>
   </si>
@@ -60,12 +59,6 @@
     <t xml:space="preserve">khởi tạo danh sách, sinh ngẫu nhiên các node trong danh sách để sắp xếp, debug chạy thử </t>
   </si>
   <si>
-    <t xml:space="preserve">tạo code duyệt danh sách để xét tính tăng giảm của danh sách. Xét xem danh sách tăng giảm như thế nào </t>
-  </si>
-  <si>
-    <t>tách danh sách liên kết ra thành các dãy có giá trị tăng dần, phân hoạch chúng vào 2 danh sách.</t>
-  </si>
-  <si>
     <t>liên kết các hàm đã làm lại ở hàm main. Chạy thử chương trình.-&gt; debug lỗi.</t>
   </si>
   <si>
@@ -93,41 +86,77 @@
     <t>26/9/2018</t>
   </si>
   <si>
-    <t>27/9/2018</t>
-  </si>
-  <si>
-    <t>29/9/2018</t>
-  </si>
-  <si>
-    <t>15/10/2018</t>
-  </si>
-  <si>
-    <t>16/10/2018</t>
-  </si>
-  <si>
-    <t>19/10/2018</t>
-  </si>
-  <si>
-    <t>28/10/2018</t>
-  </si>
-  <si>
     <t>29/10/2018</t>
   </si>
   <si>
-    <t>30/10/2018</t>
-  </si>
-  <si>
     <t>TÊN CÔNG VIỆC</t>
   </si>
   <si>
-    <t>viết hàm sử lý mergesort sau đó đệ quy. Debug lỗi cú pháp. Sữa lỗi nếu có</t>
+    <t>25/92018</t>
+  </si>
+  <si>
+    <t>13/10/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tạo Node mới và thêm Node vào danh sách liên kết </t>
+  </si>
+  <si>
+    <t>17/10/2018</t>
+  </si>
+  <si>
+    <t>22/10/2018</t>
+  </si>
+  <si>
+    <t>20/10/2018</t>
+  </si>
+  <si>
+    <t>26/10/2018</t>
+  </si>
+  <si>
+    <t>tách danh sách liên kế vừa tạo ngẫu nhiên  ra thành các dãy có giá trị tăng dần, phân hoạch chúng vào 2 danh sách.</t>
+  </si>
+  <si>
+    <t>24/10/2018</t>
+  </si>
+  <si>
+    <t>27/10/2018</t>
+  </si>
+  <si>
+    <t>23/10/2018</t>
+  </si>
+  <si>
+    <t>viết hàm phân hoạch cho merge sort luân phiên tăng giảm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">viết hàm để hợp nhất các dãy liên kết đã phân hoạch. Trộn lại để ra  danh sách liên kết tăng </t>
+  </si>
+  <si>
+    <t>viết 1 vòng lặp để có thể duyệt danh sách thứ 2 để hợp các node thành 1 danh sách</t>
+  </si>
+  <si>
+    <t>duyệt qua danh sách đầu tiên để chèn node nhỏ hơn vào danh sách.</t>
+  </si>
+  <si>
+    <t>14/11/2018</t>
+  </si>
+  <si>
+    <t>15/11/2018</t>
+  </si>
+  <si>
+    <t>16/11/2018</t>
+  </si>
+  <si>
+    <t>18/11/2018</t>
+  </si>
+  <si>
+    <t>Bảng kế Hoạch thực hiện đề tài  sắp xếp danh sách liên kết bằng phương pháp merge sort.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,25 +173,44 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="25"/>
+      <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -177,25 +225,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -511,16 +569,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="131.140625" customWidth="1"/>
+    <col min="2" max="2" width="149.42578125" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" customWidth="1"/>
     <col min="5" max="5" width="28.5703125" customWidth="1"/>
@@ -529,339 +587,399 @@
     <col min="8" max="8" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8">
+        <v>43230</v>
+      </c>
+      <c r="F5" s="8">
+        <v>43383</v>
+      </c>
+      <c r="G5" s="8">
+        <v>43261</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="G7" s="8"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="B8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="5">
-        <v>43365</v>
-      </c>
-      <c r="H2" s="5">
-        <v>43365</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="B10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="8">
+        <v>43142</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="5">
-        <v>43368</v>
-      </c>
-      <c r="H3" s="5">
-        <v>43368</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="B11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="8">
+        <v>43170</v>
+      </c>
+      <c r="F11" s="8">
+        <v>43201</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="5">
-        <v>43371</v>
-      </c>
-      <c r="H4" s="5">
-        <v>43373</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="B12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5">
-        <v>43141</v>
-      </c>
-      <c r="F5" s="5">
-        <v>43200</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="C12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="8">
+        <v>43262</v>
+      </c>
+      <c r="F12" s="8">
+        <v>43323</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="5">
-        <v>43291</v>
-      </c>
-      <c r="F6" s="5">
-        <v>43322</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="5">
-        <v>43414</v>
-      </c>
-      <c r="F7" s="5">
-        <v>43444</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="C13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="8">
+        <v>43354</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="C14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="C15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="5">
-        <v>43142</v>
-      </c>
-      <c r="F11" s="5">
-        <v>43231</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="5">
-        <v>43262</v>
-      </c>
-      <c r="F12" s="5">
-        <v>43262</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
+      <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
+      <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
+      <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
+      <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
+      <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
+      <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
@@ -895,6 +1013,9 @@
       <c r="A27" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/bảng kế  hoạch sau khi chỉnh sửa.xlsx
+++ b/bảng kế  hoạch sau khi chỉnh sửa.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
   <si>
     <t>STT</t>
   </si>
@@ -744,8 +744,12 @@
       <c r="F7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
+      <c r="G7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">

--- a/bảng kế  hoạch sau khi chỉnh sửa.xlsx
+++ b/bảng kế  hoạch sau khi chỉnh sửa.xlsx
@@ -573,7 +573,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/bảng kế  hoạch sau khi chỉnh sửa.xlsx
+++ b/bảng kế  hoạch sau khi chỉnh sửa.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanta\OneDrive\Documents\GitHub\CODE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vo Tan Nguyen\Documents\GitHub\CODE2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D738C7-4C7A-4D87-8336-BFD759B2ED2A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24990" windowHeight="7980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24990" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
   <si>
     <t>STT</t>
   </si>
@@ -155,7 +156,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -569,11 +570,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,8 +769,12 @@
       <c r="F8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7"/>
+      <c r="G8" s="8">
+        <v>43400</v>
+      </c>
+      <c r="H8" s="8">
+        <v>43401</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
@@ -788,8 +793,12 @@
       <c r="F9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="G9" s="8">
+        <v>43401</v>
+      </c>
+      <c r="H9" s="8">
+        <v>43401</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
@@ -806,10 +815,14 @@
         <v>20</v>
       </c>
       <c r="F10" s="8">
-        <v>43142</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+        <v>43406</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="8">
+        <v>43403</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
@@ -823,13 +836,17 @@
         <v>7</v>
       </c>
       <c r="E11" s="8">
-        <v>43170</v>
+        <v>43407</v>
       </c>
       <c r="F11" s="8">
-        <v>43201</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+        <v>43408</v>
+      </c>
+      <c r="G11" s="8">
+        <v>43405</v>
+      </c>
+      <c r="H11" s="8">
+        <v>43406</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
@@ -850,8 +867,12 @@
       <c r="F12" s="8">
         <v>43323</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="G12" s="8">
+        <v>43407</v>
+      </c>
+      <c r="H12" s="8">
+        <v>43407</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">

--- a/bảng kế  hoạch sau khi chỉnh sửa.xlsx
+++ b/bảng kế  hoạch sau khi chỉnh sửa.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vo Tan Nguyen\Documents\GitHub\CODE2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanta\OneDrive\Documents\GitHub\CODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D738C7-4C7A-4D87-8336-BFD759B2ED2A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24990" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24990" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -156,7 +155,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -570,10 +569,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>

--- a/bảng kế  hoạch sau khi chỉnh sửa.xlsx
+++ b/bảng kế  hoạch sau khi chỉnh sửa.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
   <si>
     <t>STT</t>
   </si>
@@ -150,6 +150,15 @@
   </si>
   <si>
     <t>Bảng kế Hoạch thực hiện đề tài  sắp xếp danh sách liên kết bằng phương pháp merge sort.</t>
+  </si>
+  <si>
+    <t>28/10/2018</t>
+  </si>
+  <si>
+    <t>30/10/2018</t>
+  </si>
+  <si>
+    <t>17/11/2018</t>
   </si>
 </sst>
 </file>
@@ -570,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +596,7 @@
     <col min="8" max="8" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>41</v>
       </c>
@@ -599,7 +608,7 @@
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -624,8 +633,9 @@
       <c r="H2" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -650,8 +660,9 @@
       <c r="H3" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -676,8 +687,9 @@
       <c r="H4" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -700,8 +712,9 @@
       <c r="H5" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -724,8 +737,9 @@
       <c r="H6" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -750,8 +764,9 @@
       <c r="H7" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -768,14 +783,15 @@
       <c r="F8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="8">
-        <v>43400</v>
-      </c>
-      <c r="H8" s="8">
-        <v>43401</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -792,14 +808,15 @@
       <c r="F9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="8">
-        <v>43401</v>
-      </c>
-      <c r="H9" s="8">
-        <v>43401</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -814,16 +831,17 @@
         <v>20</v>
       </c>
       <c r="F10" s="8">
-        <v>43406</v>
+        <v>43142</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="8">
-        <v>43403</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -835,19 +853,20 @@
         <v>7</v>
       </c>
       <c r="E11" s="8">
-        <v>43407</v>
+        <v>43170</v>
       </c>
       <c r="F11" s="8">
-        <v>43408</v>
+        <v>43201</v>
       </c>
       <c r="G11" s="8">
-        <v>43405</v>
+        <v>43111</v>
       </c>
       <c r="H11" s="8">
-        <v>43406</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>43142</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -867,13 +886,14 @@
         <v>43323</v>
       </c>
       <c r="G12" s="8">
-        <v>43407</v>
+        <v>43231</v>
       </c>
       <c r="H12" s="8">
-        <v>43407</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>43292</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -892,10 +912,15 @@
       <c r="F13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="8">
+        <v>43323</v>
+      </c>
+      <c r="H13" s="8">
+        <v>43445</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -914,10 +939,15 @@
       <c r="F14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -939,7 +969,7 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>14</v>
       </c>

--- a/bảng kế  hoạch sau khi chỉnh sửa.xlsx
+++ b/bảng kế  hoạch sau khi chỉnh sửa.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
   <si>
     <t>STT</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>17/11/2018</t>
+  </si>
+  <si>
+    <t>19/11/2018</t>
+  </si>
+  <si>
+    <t>20/11/2018</t>
   </si>
 </sst>
 </file>
@@ -234,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -258,7 +264,6 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -581,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,16 +602,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -966,8 +971,12 @@
       <c r="F15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="G15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
@@ -988,8 +997,12 @@
       <c r="F16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="G16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>

--- a/bảng kế  hoạch sau khi chỉnh sửa.xlsx
+++ b/bảng kế  hoạch sau khi chỉnh sửa.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
   <si>
     <t>STT</t>
   </si>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>viết 1 vòng lặp để có thể duyệt danh sách thứ 2 để hợp các node thành 1 danh sách</t>
-  </si>
-  <si>
-    <t>duyệt qua danh sách đầu tiên để chèn node nhỏ hơn vào danh sách.</t>
   </si>
   <si>
     <t>14/11/2018</t>
@@ -586,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,7 +600,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -792,7 +789,7 @@
         <v>28</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -814,10 +811,10 @@
         <v>31</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9" s="1"/>
     </row>
@@ -842,7 +839,7 @@
         <v>20</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I10" s="1"/>
     </row>
@@ -851,7 +848,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
@@ -915,7 +912,7 @@
         <v>43354</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" s="8">
         <v>43323</v>
@@ -939,16 +936,16 @@
         <v>7</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I14" s="1"/>
     </row>
@@ -966,16 +963,16 @@
         <v>7</v>
       </c>
       <c r="E15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
@@ -992,16 +989,16 @@
         <v>7</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">

--- a/bảng kế  hoạch sau khi chỉnh sửa.xlsx
+++ b/bảng kế  hoạch sau khi chỉnh sửa.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanta\OneDrive\Documents\GitHub\CODE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vo Tan Nguyen\Documents\GitHub\CODE\CODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A72EAA-E8AD-4D61-935E-CC0C0F4EFEEF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24990" windowHeight="7980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24990" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="43">
   <si>
     <t>STT</t>
   </si>
@@ -113,21 +114,9 @@
     <t>26/10/2018</t>
   </si>
   <si>
-    <t>tách danh sách liên kế vừa tạo ngẫu nhiên  ra thành các dãy có giá trị tăng dần, phân hoạch chúng vào 2 danh sách.</t>
-  </si>
-  <si>
-    <t>24/10/2018</t>
-  </si>
-  <si>
     <t>27/10/2018</t>
   </si>
   <si>
-    <t>23/10/2018</t>
-  </si>
-  <si>
-    <t>viết hàm phân hoạch cho merge sort luân phiên tăng giảm</t>
-  </si>
-  <si>
     <t xml:space="preserve">viết hàm để hợp nhất các dãy liên kết đã phân hoạch. Trộn lại để ra  danh sách liên kết tăng </t>
   </si>
   <si>
@@ -162,12 +151,15 @@
   </si>
   <si>
     <t>20/11/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">viết hàm phân hoạch tách thành 2 danh sách cho merge sort  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -580,11 +572,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,7 +592,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -746,25 +738,23 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="G7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="7" t="s">
         <v>28</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="I7" s="1"/>
     </row>
@@ -773,23 +763,23 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -798,23 +788,23 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>31</v>
+        <v>20</v>
+      </c>
+      <c r="F9" s="8">
+        <v>43142</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I9" s="1"/>
     </row>
@@ -823,23 +813,23 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="8">
+        <v>43170</v>
       </c>
       <c r="F10" s="8">
+        <v>43201</v>
+      </c>
+      <c r="G10" s="8">
+        <v>43111</v>
+      </c>
+      <c r="H10" s="8">
         <v>43142</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="I10" s="1"/>
     </row>
@@ -848,23 +838,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="D11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="8">
-        <v>43170</v>
+        <v>43262</v>
       </c>
       <c r="F11" s="8">
-        <v>43201</v>
+        <v>43323</v>
       </c>
       <c r="G11" s="8">
-        <v>43111</v>
+        <v>43231</v>
       </c>
       <c r="H11" s="8">
-        <v>43142</v>
+        <v>43292</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -873,7 +865,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>7</v>
@@ -882,16 +874,16 @@
         <v>7</v>
       </c>
       <c r="E12" s="8">
-        <v>43262</v>
-      </c>
-      <c r="F12" s="8">
+        <v>43354</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="8">
         <v>43323</v>
       </c>
-      <c r="G12" s="8">
-        <v>43231</v>
-      </c>
       <c r="H12" s="8">
-        <v>43292</v>
+        <v>43445</v>
       </c>
       <c r="I12" s="1"/>
     </row>
@@ -900,7 +892,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>7</v>
@@ -908,17 +900,17 @@
       <c r="D13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="8">
-        <v>43354</v>
+      <c r="E13" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="8">
-        <v>43323</v>
-      </c>
-      <c r="H13" s="8">
-        <v>43445</v>
+        <v>33</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="I13" s="1"/>
     </row>
@@ -927,7 +919,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>7</v>
@@ -936,16 +928,16 @@
         <v>7</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I14" s="1"/>
     </row>
@@ -954,7 +946,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>7</v>
@@ -963,43 +955,27 @@
         <v>7</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>14</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>45</v>
-      </c>
+      <c r="A16" s="4"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
